--- a/biology/Zoologie/Civette_palmiste_à_bandes/Civette_palmiste_à_bandes.xlsx
+++ b/biology/Zoologie/Civette_palmiste_à_bandes/Civette_palmiste_à_bandes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Civette_palmiste_%C3%A0_bandes</t>
+          <t>Civette_palmiste_à_bandes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemigalus derbyanus
-La Civette palmiste à bandes de Derby[1] (Hemigalus derbyanus), ou Civette palmiste à bandes ou Hémigale zébré,   est une espèce de mammifères carnivores de la famille des viverridés. C'est la seule espèce du genre Hemigalus.
+La Civette palmiste à bandes de Derby (Hemigalus derbyanus), ou Civette palmiste à bandes ou Hémigale zébré,   est une espèce de mammifères carnivores de la famille des viverridés. C'est la seule espèce du genre Hemigalus.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Civette_palmiste_%C3%A0_bandes</t>
+          <t>Civette_palmiste_à_bandes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce mesure de 46 à 53 cm sans la queue, cette dernière mesurant de 25 à 38 cm, avec un corps élancé. Le pelage est gris-jaune avec 7 ou 8 bandes transversales noires. Ce sont de bon grimpeurs aux griffes partiellement rétractables[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce mesure de 46 à 53 cm sans la queue, cette dernière mesurant de 25 à 38 cm, avec un corps élancé. Le pelage est gris-jaune avec 7 ou 8 bandes transversales noires. Ce sont de bon grimpeurs aux griffes partiellement rétractables.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Civette_palmiste_%C3%A0_bandes</t>
+          <t>Civette_palmiste_à_bandes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Asie du Sud-Est dans les pays suivants : Brunei, Indonésie, Malaisie, Thaïlande, Birmanie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Asie du Sud-Est dans les pays suivants : Brunei, Indonésie, Malaisie, Thaïlande, Birmanie.
 Elle vit dans les forêts, mais passe la majeure partie de son temps au sol.
 </t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Civette_palmiste_%C3%A0_bandes</t>
+          <t>Civette_palmiste_à_bandes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Biologie et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des animaux nocturnes. Ils sont carnivores et chassent diverses proies dans les arbres ou sur le sol. Leur régime alimentaire comprend des vers, des escargots, araignées, fourmis, grenouilles… En captivité ils semblent également consommer des fruits[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des animaux nocturnes. Ils sont carnivores et chassent diverses proies dans les arbres ou sur le sol. Leur régime alimentaire comprend des vers, des escargots, araignées, fourmis, grenouilles… En captivité ils semblent également consommer des fruits.
 </t>
         </is>
       </c>
